--- a/metadata/Metadata.xlsx
+++ b/metadata/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/c1032379_newcastle_ac_uk/Documents/10_Research_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/c1032379_newcastle_ac_uk/Documents/10_Research_Project/Project_MRes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{31A024E5-7A5F-4587-89B2-391FBB6668B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0DD99F5-5088-4F21-9EFF-886DC30EDA16}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{31A024E5-7A5F-4587-89B2-391FBB6668B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73E0EC6-3402-4AED-A6FB-CF2DBE4E0A17}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C742DE42-1625-4C44-B5BF-4FD22CB14B31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Access or rights policies/restrictions</t>
   </si>
@@ -103,13 +103,61 @@
   </si>
   <si>
     <t>Creative Commons Attribution for Intergovernmental Organisations</t>
+  </si>
+  <si>
+    <t>Landsat 5</t>
+  </si>
+  <si>
+    <t>Landsat 7</t>
+  </si>
+  <si>
+    <t>Landsat 8</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/earth-engine/datasets/catalog/LANDSAT_LC08_C02_T1_L2</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Worldwide Reference System (WRS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud data - Code on github </t>
+  </si>
+  <si>
+    <t>GeoTIFF</t>
+  </si>
+  <si>
+    <t>2013 - 2021</t>
+  </si>
+  <si>
+    <t>1991 - 2002</t>
+  </si>
+  <si>
+    <t>1999 - 2021</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/earth-engine/datasets/catalog/LANDSAT_LE07_C02_T1_L2</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/earth-engine/datasets/catalog/LANDSAT_LT05_C02_T1_L2</t>
+  </si>
+  <si>
+    <t>ESA WorldCover 10m v100</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/earth-engine/datasets/catalog/ESA_WorldCover_v100?hl=en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,19 +166,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,8 +194,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lato,Open Sans,Lucida Grande,Se"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,25 +223,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,179 +553,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA051E3F-F7D0-44A6-BCDB-131C1DD2237C}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="11" width="22.453125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="11" width="22.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2021</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2021</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2021</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{DD51BE8F-AED3-40DD-814D-C51C9F5B7367}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>